--- a/PCAcombined_predicted_variables_matrix_9.xlsx
+++ b/PCAcombined_predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,31 +440,13 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.5358446782002138</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5358357742845312</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5358292270433367</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5358304863790356</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5358315566300916</v>
+        <v>0.5358477641837278</v>
       </c>
     </row>
     <row r="3">
@@ -472,16 +454,7 @@
         <v>0.5361095054338836</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5361251779612807</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5361252474136307</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5361220096045</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5361194872461502</v>
+        <v>0.5361249106326509</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +462,7 @@
         <v>0.5361038168209018</v>
       </c>
       <c r="B4" t="n">
-        <v>0.536138524333783</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5361295199338162</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5361240549664349</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5361205531429296</v>
+        <v>0.5361268379848817</v>
       </c>
     </row>
     <row r="5">
@@ -506,16 +470,7 @@
         <v>0.5358931054318167</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5359416976797268</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5359406182502461</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5359388935134164</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5359372536198503</v>
+        <v>0.535939740647919</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +478,7 @@
         <v>0.536089791819649</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5360673896990253</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5360908520236982</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5360958510864909</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5360970533797942</v>
+        <v>0.5360818688466036</v>
       </c>
     </row>
     <row r="7">
@@ -540,16 +486,7 @@
         <v>0.5357381676992632</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5357288937237891</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5357302144300944</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.5357330170251436</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5357343188825381</v>
+        <v>0.5357762590373603</v>
       </c>
     </row>
     <row r="8">
@@ -557,16 +494,7 @@
         <v>0.5359582404676663</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5359365328028357</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5359156980391795</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.5359050486360488</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5358993908928674</v>
+        <v>0.5359280981677405</v>
       </c>
     </row>
     <row r="9">
@@ -574,16 +502,7 @@
         <v>0.5357883679679256</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5357892331508426</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5357789942158968</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.5357747856414398</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5357724931418414</v>
+        <v>0.5358229786213051</v>
       </c>
     </row>
     <row r="10">
@@ -591,16 +510,7 @@
         <v>0.5362268726624764</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5362202907822343</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.536210760347505</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5362060568820207</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.536203612589671</v>
+        <v>0.5362597593369195</v>
       </c>
     </row>
     <row r="11">
@@ -608,16 +518,7 @@
         <v>0.5358135524826354</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5358592463274379</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5358647926160359</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.5358649281651121</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.5358635326594674</v>
+        <v>0.5358815412064829</v>
       </c>
     </row>
     <row r="12">
@@ -625,16 +526,7 @@
         <v>0.535876695599217</v>
       </c>
       <c r="B12" t="n">
-        <v>0.535935566019864</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.535934411476013</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.5359276344471917</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.5359225205968333</v>
+        <v>0.5359311772445958</v>
       </c>
     </row>
     <row r="13">
@@ -642,16 +534,7 @@
         <v>0.535926386416586</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5359462752095024</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5359507721937062</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.5359475758756267</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.5359444282197009</v>
+        <v>0.5359783972240237</v>
       </c>
     </row>
     <row r="14">
@@ -659,16 +542,7 @@
         <v>0.535897445245424</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5359905119419258</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5360006524109711</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.5359975217914457</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5359938509502455</v>
+        <v>0.5360054228027122</v>
       </c>
     </row>
     <row r="15">
@@ -676,16 +550,7 @@
         <v>0.5358471680201461</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5359119673525948</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5359039477902875</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.5358952710186268</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.5358892139835508</v>
+        <v>0.5359399170952573</v>
       </c>
     </row>
     <row r="16">
@@ -693,16 +558,7 @@
         <v>0.5360853312637828</v>
       </c>
       <c r="B16" t="n">
-        <v>0.536161364574764</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5361487566308036</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.5361378993080766</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5361314542685668</v>
+        <v>0.5361809673837892</v>
       </c>
     </row>
     <row r="17">
@@ -710,16 +566,7 @@
         <v>0.5361995308368862</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5362233656974148</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5362197624357391</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.5362146368415577</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.5362107212804075</v>
+        <v>0.5362332461021858</v>
       </c>
     </row>
     <row r="18">
@@ -727,16 +574,7 @@
         <v>0.5358654330543815</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5358877551839968</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5358814956269985</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.5358726713547244</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.5358664844636265</v>
+        <v>0.5359125721060801</v>
       </c>
     </row>
     <row r="19">
@@ -744,16 +582,7 @@
         <v>0.5360307956385311</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5361115425968968</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5361377182559189</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.5361394872865817</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.5361373633887427</v>
+        <v>0.5361728024411092</v>
       </c>
     </row>
     <row r="20">
@@ -761,16 +590,7 @@
         <v>0.5360890348672067</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5361140052530882</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5360953161435027</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5360834295373821</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.5360767222626708</v>
+        <v>0.5361108197589352</v>
       </c>
     </row>
     <row r="21">
@@ -778,16 +598,7 @@
         <v>0.5361984149703334</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5362727097815924</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5362662268144212</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.5362591638748241</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.5362549408664689</v>
+        <v>0.536271888297462</v>
       </c>
     </row>
     <row r="22">
@@ -795,16 +606,7 @@
         <v>0.5360842506539699</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5361159294992081</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5361234829645811</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5361201920620513</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.5361168935128369</v>
+        <v>0.5361246153077988</v>
       </c>
     </row>
     <row r="23">
@@ -812,16 +614,7 @@
         <v>0.5358100254650561</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5358723043700598</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5358784102037025</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.535873031082291</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.5358680785450152</v>
+        <v>0.535866782434319</v>
       </c>
     </row>
     <row r="24">
@@ -829,16 +622,7 @@
         <v>0.5359678608035069</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5370656114150979</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.5369246074449303</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.5368657278283455</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.5368327761475411</v>
+        <v>0.5365019723224003</v>
       </c>
     </row>
     <row r="25">
@@ -846,16 +630,7 @@
         <v>0.5362904386483317</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5362086347888867</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.5361961120784231</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.5361925171240434</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.5361915226948574</v>
+        <v>0.5362073135913298</v>
       </c>
     </row>
     <row r="26">
@@ -863,16 +638,7 @@
         <v>0.5359678044336587</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5361006120629999</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.5361111538880728</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5361028684816157</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.5360953962947957</v>
+        <v>0.536013085149244</v>
       </c>
     </row>
     <row r="27">
@@ -880,16 +646,7 @@
         <v>0.5360089793618222</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5359702353156457</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5359990396958076</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5360121086398445</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.5360183208623386</v>
+        <v>0.5359831300667827</v>
       </c>
     </row>
     <row r="28">
@@ -897,16 +654,7 @@
         <v>0.5363927941702574</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5364982143933122</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.5364811587504174</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.5364845746624178</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.5364881064346776</v>
+        <v>0.5364337451684931</v>
       </c>
     </row>
     <row r="29">
@@ -914,16 +662,7 @@
         <v>0.5361764505446088</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5368051188915783</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.536885499614526</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.5369163335741068</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.5369249980463155</v>
+        <v>0.5368192608027537</v>
       </c>
     </row>
     <row r="30">
@@ -931,16 +670,7 @@
         <v>0.5363230423028618</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5363463279741094</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.5363609323107994</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.5363715417491558</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.5363771304402439</v>
+        <v>0.536371439100323</v>
       </c>
     </row>
     <row r="31">
@@ -948,16 +678,7 @@
         <v>0.5357964748095928</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5356816102084953</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5357336183707452</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.5357474850447899</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.5357516794682753</v>
+        <v>0.5357478602679748</v>
       </c>
     </row>
     <row r="32">
@@ -965,16 +686,7 @@
         <v>0.5363193130364089</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5362737148228602</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.5362958531259503</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.5363099981812784</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.536317748591138</v>
+        <v>0.5363339914101383</v>
       </c>
     </row>
     <row r="33">
@@ -982,16 +694,7 @@
         <v>0.5363771246472615</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5363861633701666</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.5364138866530772</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.5364246864396144</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.5364294139203863</v>
+        <v>0.5364539424345428</v>
       </c>
     </row>
     <row r="34">
@@ -999,16 +702,7 @@
         <v>0.5355301748243184</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5355121568457494</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.5354959781558797</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.5354961311497887</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5354967153549441</v>
+        <v>0.5355166003969251</v>
       </c>
     </row>
     <row r="35">
@@ -1016,16 +710,7 @@
         <v>0.536452112024855</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5364675663152658</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.5364664940258714</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.5364668456904952</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.5364672357584488</v>
+        <v>0.5364719539866881</v>
       </c>
     </row>
     <row r="36">
@@ -1033,16 +718,7 @@
         <v>0.5364712754504782</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5364462401420262</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.5364447675294323</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.5364469701993265</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.5364487660793256</v>
+        <v>0.5364666517977266</v>
       </c>
     </row>
     <row r="37">
@@ -1050,16 +726,7 @@
         <v>0.5364565156309639</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5364637524839112</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5364425957560899</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.5364349317984954</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.536431645463238</v>
+        <v>0.5364558415447096</v>
       </c>
     </row>
     <row r="38">
@@ -1067,16 +734,7 @@
         <v>0.5363921746048943</v>
       </c>
       <c r="B38" t="n">
-        <v>0.536349539377358</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.5363620644489516</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.5363676755266692</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.5363703174055223</v>
+        <v>0.5363849924588776</v>
       </c>
     </row>
     <row r="39">
@@ -1084,16 +742,7 @@
         <v>0.5363705186396448</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5363572005710303</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.536347341016577</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.5363445104570912</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.5363434951606127</v>
+        <v>0.5363743594719818</v>
       </c>
     </row>
     <row r="40">
@@ -1101,16 +750,7 @@
         <v>0.5364479037893971</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5364496247947063</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.5364455362631411</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.5364436988685656</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.5364429032944598</v>
+        <v>0.5364587496866698</v>
       </c>
     </row>
     <row r="41">
@@ -1118,16 +758,7 @@
         <v>0.5363370858376536</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5363286461986199</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5363225078741277</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.5363209422740225</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.5363205158856881</v>
+        <v>0.5363266374624851</v>
       </c>
     </row>
     <row r="42">
@@ -1135,16 +766,7 @@
         <v>0.5363734057020433</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5363680445423039</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.5363642365375608</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.5363635475176641</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.5363631519279258</v>
+        <v>0.5363945449848634</v>
       </c>
     </row>
     <row r="43">
@@ -1152,16 +774,7 @@
         <v>0.5364131770428534</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5363940517323953</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5363909705130366</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.536389809880747</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.5363891763363109</v>
+        <v>0.5364092474816453</v>
       </c>
     </row>
     <row r="44">
@@ -1169,16 +782,7 @@
         <v>0.5363853373974349</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5364031663768162</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.5363956642744601</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.5363932472381674</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.5363923084785287</v>
+        <v>0.5364296031806427</v>
       </c>
     </row>
     <row r="45">
@@ -1186,16 +790,7 @@
         <v>0.5364660323319335</v>
       </c>
       <c r="B45" t="n">
-        <v>0.536435860824476</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.5364149317339817</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.5364104195792364</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.5364094399771312</v>
+        <v>0.5364625911492843</v>
       </c>
     </row>
     <row r="46">
@@ -1203,16 +798,7 @@
         <v>0.5352184788808038</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5352252160537557</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.5352083714761185</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.535198824445004</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.535191798838536</v>
+        <v>0.5352774986536919</v>
       </c>
     </row>
     <row r="47">
@@ -1220,16 +806,7 @@
         <v>0.5353913910180333</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5353843956722574</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.535374352923081</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.5353685941054107</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.5353638628593503</v>
+        <v>0.5354456045638578</v>
       </c>
     </row>
     <row r="48">
@@ -1237,16 +814,7 @@
         <v>0.5354747591137899</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5354639452499277</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.5354571168026244</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.5354531382821348</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.5354493217988308</v>
+        <v>0.535527339048393</v>
       </c>
     </row>
     <row r="49">
@@ -1254,16 +822,7 @@
         <v>0.5355975633668596</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5356054296525505</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.5355974577887341</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.5355930671695595</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.5355893165789403</v>
+        <v>0.5356535130281418</v>
       </c>
     </row>
     <row r="50">
@@ -1271,16 +830,7 @@
         <v>0.5359068880872916</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5359322515955516</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.5359303277455104</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.5359281157044931</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.5359258185313457</v>
+        <v>0.5359765172718712</v>
       </c>
     </row>
     <row r="51">
@@ -1288,16 +838,7 @@
         <v>0.5354996171413128</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5354954770849673</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.5354790467473771</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5354723958240267</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.5354678862673482</v>
+        <v>0.5355306390129575</v>
       </c>
     </row>
     <row r="52">
@@ -1305,16 +846,7 @@
         <v>0.5354996171413128</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5354954770849673</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.5354790467473771</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5354723958240267</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.5354678862673482</v>
+        <v>0.5355306390129575</v>
       </c>
     </row>
     <row r="53">
@@ -1322,16 +854,7 @@
         <v>0.5353389227305646</v>
       </c>
       <c r="B53" t="n">
-        <v>0.535307519053661</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.5352990809488394</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.5352951560847665</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.5352911467240823</v>
+        <v>0.5353878074992838</v>
       </c>
     </row>
     <row r="54">
@@ -1339,16 +862,7 @@
         <v>0.5358725024890044</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5358816263488946</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.5358738097323013</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.5358701610935208</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.5358673927591682</v>
+        <v>0.5359218601171234</v>
       </c>
     </row>
     <row r="55">
@@ -1356,16 +870,7 @@
         <v>0.5353808603282771</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5353571104812339</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.5353585414081385</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.5353559564694903</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.5353522850223785</v>
+        <v>0.5354283060290996</v>
       </c>
     </row>
     <row r="56">
@@ -1373,16 +878,7 @@
         <v>0.5354128584862268</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5354487984104231</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.5354358182563912</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.5354273108173132</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.5354211620015122</v>
+        <v>0.5354860957303527</v>
       </c>
     </row>
     <row r="57">
@@ -1390,16 +886,7 @@
         <v>0.5353927522052094</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5353987817528301</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.5353877189558847</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.5353795137019557</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.5353734692295489</v>
+        <v>0.5354691694151996</v>
       </c>
     </row>
     <row r="58">
@@ -1407,16 +894,7 @@
         <v>0.5352818015085434</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5353167232321622</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.5353036695912253</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.5352963197400924</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.5352912799981437</v>
+        <v>0.5353603764734699</v>
       </c>
     </row>
     <row r="59">
@@ -1424,16 +902,7 @@
         <v>0.5354866772184212</v>
       </c>
       <c r="B59" t="n">
-        <v>0.535511977930379</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.5354973683154404</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.5354908989463317</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.5354865609709832</v>
+        <v>0.5355471068848341</v>
       </c>
     </row>
     <row r="60">
@@ -1441,16 +910,7 @@
         <v>0.5357177455090528</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5357197186169191</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.5357091100320434</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.5357047571012424</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.5357021774987848</v>
+        <v>0.5357407962856647</v>
       </c>
     </row>
     <row r="61">
@@ -1458,16 +918,7 @@
         <v>0.5362052818426767</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5362043236541201</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.5362005805785783</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.5361988808451293</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.5361977923588915</v>
+        <v>0.5362377459475458</v>
       </c>
     </row>
     <row r="62">
@@ -1475,16 +926,7 @@
         <v>0.535262730863137</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5351796786267997</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.5352089440826754</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.5352143111060114</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.5352138807381881</v>
+        <v>0.5353182900895587</v>
       </c>
     </row>
     <row r="63">
@@ -1492,16 +934,7 @@
         <v>0.5357285044632292</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5357065588226338</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.5356677759629761</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.535652896786648</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.5356459538034464</v>
+        <v>0.5356757121493104</v>
       </c>
     </row>
     <row r="64">
@@ -1509,16 +942,7 @@
         <v>0.5355170607375082</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5354444595046607</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.5354491768076016</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.5354512235653087</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.5354511604183346</v>
+        <v>0.5355239526720813</v>
       </c>
     </row>
     <row r="65">
@@ -1526,16 +950,7 @@
         <v>0.5359276169084523</v>
       </c>
       <c r="B65" t="n">
-        <v>0.535969983232563</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.5359515198189451</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.535943700408206</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.5359395073562572</v>
+        <v>0.5359746295277161</v>
       </c>
     </row>
     <row r="66">
@@ -1543,16 +958,7 @@
         <v>0.5354932379414603</v>
       </c>
       <c r="B66" t="n">
-        <v>0.535466448951384</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.5354794401601141</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.5354792898125272</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.535477135282283</v>
+        <v>0.5355443608804885</v>
       </c>
     </row>
     <row r="67">
@@ -1560,16 +966,7 @@
         <v>0.5353910076553274</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5354930619417956</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.5354874336594849</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.5354796734323644</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.5354735214157785</v>
+        <v>0.5355496369501495</v>
       </c>
     </row>
     <row r="68">
@@ -1577,16 +974,7 @@
         <v>-0.9364737443580188</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.9495731497280513</v>
-      </c>
-      <c r="C68" t="n">
-        <v>-0.9561631704498256</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.9619361637745562</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-0.9670930835364768</v>
+        <v>-0.9351964673697867</v>
       </c>
     </row>
     <row r="69">
@@ -1594,16 +982,7 @@
         <v>-0.9521450109105293</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.969096985942467</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-0.9743665594718628</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.9796804327456151</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-0.9846340722219449</v>
+        <v>-0.9499635073032934</v>
       </c>
     </row>
     <row r="70">
@@ -1611,16 +990,7 @@
         <v>-0.94282849599134</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.9507309961015046</v>
-      </c>
-      <c r="C70" t="n">
-        <v>-0.9583942940329222</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.9646318653049355</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-0.96995805842433</v>
+        <v>-0.9385308142615527</v>
       </c>
     </row>
     <row r="71">
@@ -1628,16 +998,7 @@
         <v>-0.9553984419132925</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.963226383253227</v>
-      </c>
-      <c r="C71" t="n">
-        <v>-0.9689252711466643</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-0.9746671230855433</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-0.9799077389520571</v>
+        <v>-0.9452413797331692</v>
       </c>
     </row>
     <row r="72">
@@ -1645,16 +1006,7 @@
         <v>-0.9638381342820554</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.9784803605978762</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-0.9839396713516951</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-0.989225738653838</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-0.9941757063745845</v>
+        <v>-0.962662985399318</v>
       </c>
     </row>
     <row r="73">
@@ -1662,16 +1014,7 @@
         <v>-0.9219626582926638</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.9312579931218284</v>
-      </c>
-      <c r="C73" t="n">
-        <v>-0.9395145307277952</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-0.945853275200892</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-0.9512066279782337</v>
+        <v>-0.921764941160666</v>
       </c>
     </row>
     <row r="74">
@@ -1679,16 +1022,7 @@
         <v>-0.9160141706102987</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.921348946241581</v>
-      </c>
-      <c r="C74" t="n">
-        <v>-0.9294639376074931</v>
-      </c>
-      <c r="D74" t="n">
-        <v>-0.9358936775676444</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-0.9413116628348985</v>
+        <v>-0.9132890967513904</v>
       </c>
     </row>
     <row r="75">
@@ -1696,16 +1030,7 @@
         <v>-0.9209958413273207</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.9395044955933839</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-0.946148158601619</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-0.9520685214538054</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-0.957252693702993</v>
+        <v>-0.9262137765839573</v>
       </c>
     </row>
     <row r="76">
@@ -1713,16 +1038,7 @@
         <v>-0.9388427949371005</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.9549409144695178</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-0.9595020993091148</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-0.9647704423485887</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-0.9697228647167502</v>
+        <v>-0.9346527778393726</v>
       </c>
     </row>
     <row r="77">
@@ -1730,16 +1046,7 @@
         <v>-0.9487745455284968</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.9609973984816521</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-0.9692722605341194</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-0.9760001428207147</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-0.9816209890048451</v>
+        <v>-0.9502538592710442</v>
       </c>
     </row>
     <row r="78">
@@ -1747,16 +1054,7 @@
         <v>-0.9633186747919414</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.9630859479157251</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-0.9703347661428922</v>
-      </c>
-      <c r="D78" t="n">
-        <v>-0.9769933513877662</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-0.9827029580912261</v>
+        <v>-0.9565663588681688</v>
       </c>
     </row>
     <row r="79">
@@ -1764,16 +1062,7 @@
         <v>-0.9709473040397775</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.9770567693178248</v>
-      </c>
-      <c r="C79" t="n">
-        <v>-0.983641904205527</v>
-      </c>
-      <c r="D79" t="n">
-        <v>-0.9896742851361208</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-0.9950375341703632</v>
+        <v>-0.9637880443425272</v>
       </c>
     </row>
     <row r="80">
@@ -1781,16 +1070,7 @@
         <v>-0.9552815257579618</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.9641484449580847</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-0.9708357964265054</v>
-      </c>
-      <c r="D80" t="n">
-        <v>-0.9770159714405863</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-0.9824137953698453</v>
+        <v>-0.9520566272035974</v>
       </c>
     </row>
     <row r="81">
@@ -1798,16 +1078,7 @@
         <v>-0.9530071623563335</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.9651714545548958</v>
-      </c>
-      <c r="C81" t="n">
-        <v>-0.9690620050174479</v>
-      </c>
-      <c r="D81" t="n">
-        <v>-0.9742474621462589</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-0.9792232213269967</v>
+        <v>-0.9460967948248366</v>
       </c>
     </row>
     <row r="82">
@@ -1815,16 +1086,7 @@
         <v>-0.9639569065175954</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.9660955365699905</v>
-      </c>
-      <c r="C82" t="n">
-        <v>-0.9745683693134629</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-0.981068963157495</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-0.9866007880550882</v>
+        <v>-0.9647447004530418</v>
       </c>
     </row>
     <row r="83">
@@ -1832,16 +1094,7 @@
         <v>-0.9672826589051089</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.9695446732534357</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-0.975083037068301</v>
-      </c>
-      <c r="D83" t="n">
-        <v>-0.9808378334503391</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-0.9861246180001725</v>
+        <v>-0.9567369756694279</v>
       </c>
     </row>
     <row r="84">
@@ -1849,16 +1102,7 @@
         <v>-0.9536317083249171</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.965660146207815</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-0.9732683255755045</v>
-      </c>
-      <c r="D84" t="n">
-        <v>-0.9798555816562193</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-0.9854275736007522</v>
+        <v>-0.9533428252021309</v>
       </c>
     </row>
     <row r="85">
@@ -1866,16 +1110,7 @@
         <v>-0.9613723669564482</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.9654374710975443</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-0.9732217420266034</v>
-      </c>
-      <c r="D85" t="n">
-        <v>-0.9796606140592845</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-0.9851358083260811</v>
+        <v>-0.9551594674614133</v>
       </c>
     </row>
     <row r="86">
@@ -1883,16 +1118,7 @@
         <v>-0.9782981514024855</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.9856117739558272</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-0.990855901828022</v>
-      </c>
-      <c r="D86" t="n">
-        <v>-0.996537148548873</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-1.001810478913185</v>
+        <v>-0.9719492919108464</v>
       </c>
     </row>
     <row r="87">
@@ -1900,16 +1126,7 @@
         <v>-0.951665829188052</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.9590416256723101</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-0.9657135826142634</v>
-      </c>
-      <c r="D87" t="n">
-        <v>-0.9720407078600969</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-0.9775790733830011</v>
+        <v>-0.9499397110565493</v>
       </c>
     </row>
     <row r="88">
@@ -1917,16 +1134,7 @@
         <v>-0.9906064246177901</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.023489130243973</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-1.010239336944822</v>
-      </c>
-      <c r="D88" t="n">
-        <v>-1.045400256836367</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-1.073357943980388</v>
+        <v>-1.017476923975287</v>
       </c>
     </row>
     <row r="89">
@@ -1934,16 +1142,7 @@
         <v>-3.037508219351298</v>
       </c>
       <c r="B89" t="n">
-        <v>-3.669442884843747</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-3.560643549567636</v>
-      </c>
-      <c r="D89" t="n">
-        <v>-3.508166276305108</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-3.482061418535247</v>
+        <v>-3.11148841263675</v>
       </c>
     </row>
     <row r="90">
@@ -1951,16 +1150,7 @@
         <v>-1.101834879801134</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.053684527663741</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-1.07704285363745</v>
-      </c>
-      <c r="D90" t="n">
-        <v>-1.086302489098382</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-1.089834234678141</v>
+        <v>-1.078377298101564</v>
       </c>
     </row>
     <row r="91">
@@ -1968,16 +1158,7 @@
         <v>-5.920535059671916</v>
       </c>
       <c r="B91" t="n">
-        <v>-4.536515292273421</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-4.833843670930485</v>
-      </c>
-      <c r="D91" t="n">
-        <v>-4.985113451101305</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-5.068803973485186</v>
+        <v>-5.644023090432054</v>
       </c>
     </row>
     <row r="92">
@@ -1985,16 +1166,7 @@
         <v>-0.7185700948469711</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.8310337164466397</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-0.7863340169855197</v>
-      </c>
-      <c r="D92" t="n">
-        <v>-0.7678184356012283</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-0.7602939459707008</v>
+        <v>-0.7086893625026023</v>
       </c>
     </row>
     <row r="93">
@@ -2002,16 +1174,7 @@
         <v>-0.8610977378610013</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.284194505023206</v>
-      </c>
-      <c r="C93" t="n">
-        <v>-1.078753741469848</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-1.045311345067066</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-1.04017746374731</v>
+        <v>-0.8140547340337668</v>
       </c>
     </row>
     <row r="94">
@@ -2019,16 +1182,7 @@
         <v>-1.147794329192738</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.212942208810901</v>
-      </c>
-      <c r="C94" t="n">
-        <v>-1.218375658368192</v>
-      </c>
-      <c r="D94" t="n">
-        <v>-1.225128103683708</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-1.231287253637983</v>
+        <v>-1.188265708166763</v>
       </c>
     </row>
     <row r="95">
@@ -2036,16 +1190,7 @@
         <v>-0.06672757526208939</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.6454314592469192</v>
-      </c>
-      <c r="C95" t="n">
-        <v>-0.8577093788651302</v>
-      </c>
-      <c r="D95" t="n">
-        <v>-0.9467050475154014</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-0.9860714778951665</v>
+        <v>-0.3719386885895111</v>
       </c>
     </row>
     <row r="96">
@@ -2053,16 +1198,7 @@
         <v>-1.393352761614703</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.414286022330488</v>
-      </c>
-      <c r="C96" t="n">
-        <v>-1.520913494844024</v>
-      </c>
-      <c r="D96" t="n">
-        <v>-1.535721758119203</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-1.538711503117933</v>
+        <v>-1.440011537934746</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_variables_matrix_9.xlsx
+++ b/PCAcombined_predicted_variables_matrix_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,12 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +454,12 @@
       <c r="B2" t="n">
         <v>0.5358477641837278</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.5359057759818414</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5359780866134203</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +468,12 @@
       <c r="B3" t="n">
         <v>0.5361249106326509</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.5361828503641632</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5362546290558051</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +482,12 @@
       <c r="B4" t="n">
         <v>0.5361268379848817</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.5361860158373463</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5362583240976048</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +496,12 @@
       <c r="B5" t="n">
         <v>0.535939740647919</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.5360016209014349</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5360755719692827</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +510,12 @@
       <c r="B6" t="n">
         <v>0.5360818688466036</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.5361437754764685</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5362174493699281</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +524,12 @@
       <c r="B7" t="n">
         <v>0.5357762590373603</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.5358306380344074</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5358995579364639</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +538,12 @@
       <c r="B8" t="n">
         <v>0.5359280981677405</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.5359785542691338</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5360453436155201</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +552,12 @@
       <c r="B9" t="n">
         <v>0.5358229786213051</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.5358732081565246</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5359394319806904</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +566,12 @@
       <c r="B10" t="n">
         <v>0.5362597593369195</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.5363051742718201</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5363686166552657</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +580,12 @@
       <c r="B11" t="n">
         <v>0.5358815412064829</v>
       </c>
+      <c r="C11" t="n">
+        <v>0.5359400447590504</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5360113133756715</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -528,6 +594,12 @@
       <c r="B12" t="n">
         <v>0.5359311772445958</v>
       </c>
+      <c r="C12" t="n">
+        <v>0.5359907781828331</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5360631474968417</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -536,6 +608,12 @@
       <c r="B13" t="n">
         <v>0.5359783972240237</v>
       </c>
+      <c r="C13" t="n">
+        <v>0.5360326090564763</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5361009615382876</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -544,6 +622,12 @@
       <c r="B14" t="n">
         <v>0.5360054228027122</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.5360640910439518</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5361356037246406</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -552,6 +636,12 @@
       <c r="B15" t="n">
         <v>0.5359399170952573</v>
       </c>
+      <c r="C15" t="n">
+        <v>0.5359920118394561</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5360600169499702</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -560,6 +650,12 @@
       <c r="B16" t="n">
         <v>0.5361809673837892</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.5362320425779147</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5362990382510036</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -568,6 +664,12 @@
       <c r="B17" t="n">
         <v>0.5362332461021858</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.5362867241823643</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.536357420464995</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -576,6 +678,12 @@
       <c r="B18" t="n">
         <v>0.5359125721060801</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.5359620254990509</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5360289660281721</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -584,6 +692,12 @@
       <c r="B19" t="n">
         <v>0.5361728024411092</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.5362327673931468</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5363052659874276</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -592,6 +706,12 @@
       <c r="B20" t="n">
         <v>0.5361108197589352</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.5361657772374544</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.536235503491063</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -600,6 +720,12 @@
       <c r="B21" t="n">
         <v>0.536271888297462</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.5363300433794378</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5364012082151034</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -608,6 +734,12 @@
       <c r="B22" t="n">
         <v>0.5361246153077988</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.5361818750567705</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.536253491971728</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -616,6 +748,12 @@
       <c r="B23" t="n">
         <v>0.535866782434319</v>
       </c>
+      <c r="C23" t="n">
+        <v>0.5359287522142556</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5360025375207427</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -624,6 +762,12 @@
       <c r="B24" t="n">
         <v>0.5365019723224003</v>
       </c>
+      <c r="C24" t="n">
+        <v>0.5366279212883618</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5367505535569065</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -632,6 +776,12 @@
       <c r="B25" t="n">
         <v>0.5362073135913298</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.5362479397932173</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5363088979191833</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -640,6 +790,12 @@
       <c r="B26" t="n">
         <v>0.536013085149244</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.5360890491004652</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5361717514281225</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -648,6 +804,12 @@
       <c r="B27" t="n">
         <v>0.5359831300667827</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.5360437653258751</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5361168079959359</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -656,6 +818,12 @@
       <c r="B28" t="n">
         <v>0.5364337451684931</v>
       </c>
+      <c r="C28" t="n">
+        <v>0.5364941251929191</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5365685576404722</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -664,6 +832,12 @@
       <c r="B29" t="n">
         <v>0.5368192608027537</v>
       </c>
+      <c r="C29" t="n">
+        <v>0.5368923184091065</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5369842584418663</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -672,6 +846,12 @@
       <c r="B30" t="n">
         <v>0.536371439100323</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.5364282925992943</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5365002449753504</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -680,6 +860,12 @@
       <c r="B31" t="n">
         <v>0.5357478602679748</v>
       </c>
+      <c r="C31" t="n">
+        <v>0.5358005455177693</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5358670520254851</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -688,6 +874,12 @@
       <c r="B32" t="n">
         <v>0.5363339914101383</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.5363860751041223</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5364532673019037</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -696,6 +888,12 @@
       <c r="B33" t="n">
         <v>0.5364539424345428</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.5365071153445244</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.536575566804508</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -704,6 +902,12 @@
       <c r="B34" t="n">
         <v>0.5355166003969251</v>
       </c>
+      <c r="C34" t="n">
+        <v>0.5355644019821695</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5356292959025857</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -712,6 +916,12 @@
       <c r="B35" t="n">
         <v>0.5364719539866881</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.536528263345716</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5365994520553494</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -720,6 +930,12 @@
       <c r="B36" t="n">
         <v>0.5364666517977266</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.5365193929806934</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5365882519485449</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -728,6 +944,12 @@
       <c r="B37" t="n">
         <v>0.5364558415447096</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.5365053767284639</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5365719858188397</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -736,6 +958,12 @@
       <c r="B38" t="n">
         <v>0.5363849924588776</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.5364381304862313</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5365073808282501</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -744,6 +972,12 @@
       <c r="B39" t="n">
         <v>0.5363743594719818</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.5364249814746836</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5364919974373183</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -752,6 +986,12 @@
       <c r="B40" t="n">
         <v>0.5364587496866698</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.5365130555720103</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.53658226415664</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -760,6 +1000,12 @@
       <c r="B41" t="n">
         <v>0.5363266374624851</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.5363829868025144</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5364541892824026</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -768,6 +1014,12 @@
       <c r="B42" t="n">
         <v>0.5363945449848634</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.5364437708003285</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5365106029251385</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -776,6 +1028,12 @@
       <c r="B43" t="n">
         <v>0.5364092474816453</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.5364605495818222</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5365286288065148</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -784,6 +1042,12 @@
       <c r="B44" t="n">
         <v>0.5364296031806427</v>
       </c>
+      <c r="C44" t="n">
+        <v>0.5364804014757515</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5365475090363437</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -792,6 +1056,12 @@
       <c r="B45" t="n">
         <v>0.5364625911492843</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.5365070700228578</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5365701462064563</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -800,6 +1070,12 @@
       <c r="B46" t="n">
         <v>0.5352774986536919</v>
       </c>
+      <c r="C46" t="n">
+        <v>0.5353251118464887</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.535389278456146</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -808,6 +1084,12 @@
       <c r="B47" t="n">
         <v>0.5354456045638578</v>
       </c>
+      <c r="C47" t="n">
+        <v>0.5354921692321088</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5355558115078862</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -816,6 +1098,12 @@
       <c r="B48" t="n">
         <v>0.535527339048393</v>
       </c>
+      <c r="C48" t="n">
+        <v>0.5355762116496695</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5356414156822016</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -824,6 +1112,12 @@
       <c r="B49" t="n">
         <v>0.5356535130281418</v>
       </c>
+      <c r="C49" t="n">
+        <v>0.5357042714147875</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5357708203863679</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -832,6 +1126,12 @@
       <c r="B50" t="n">
         <v>0.5359765172718712</v>
       </c>
+      <c r="C50" t="n">
+        <v>0.5360293074866592</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.536097290100124</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -840,6 +1140,12 @@
       <c r="B51" t="n">
         <v>0.5355306390129575</v>
       </c>
+      <c r="C51" t="n">
+        <v>0.5355799853754524</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5356456386459181</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -848,6 +1154,12 @@
       <c r="B52" t="n">
         <v>0.5355306390129575</v>
       </c>
+      <c r="C52" t="n">
+        <v>0.5355799853754524</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5356456386459181</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -856,6 +1168,12 @@
       <c r="B53" t="n">
         <v>0.5353878074992838</v>
       </c>
+      <c r="C53" t="n">
+        <v>0.5354328550854563</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5354956760676453</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -864,6 +1182,12 @@
       <c r="B54" t="n">
         <v>0.5359218601171234</v>
       </c>
+      <c r="C54" t="n">
+        <v>0.5359728910883913</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5360397868932335</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -872,6 +1196,12 @@
       <c r="B55" t="n">
         <v>0.5354283060290996</v>
       </c>
+      <c r="C55" t="n">
+        <v>0.5354777800247258</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5355430955321226</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -880,6 +1210,12 @@
       <c r="B56" t="n">
         <v>0.5354860957303527</v>
       </c>
+      <c r="C56" t="n">
+        <v>0.5355369039831932</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5356030224218485</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -888,6 +1224,12 @@
       <c r="B57" t="n">
         <v>0.5354691694151996</v>
       </c>
+      <c r="C57" t="n">
+        <v>0.5355141480911986</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5355765751400732</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -896,6 +1238,12 @@
       <c r="B58" t="n">
         <v>0.5353603764734699</v>
       </c>
+      <c r="C58" t="n">
+        <v>0.5354111452449383</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.535476888617223</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -904,6 +1252,12 @@
       <c r="B59" t="n">
         <v>0.5355471068848341</v>
       </c>
+      <c r="C59" t="n">
+        <v>0.5355997011377844</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.535667108589573</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -912,6 +1266,12 @@
       <c r="B60" t="n">
         <v>0.5357407962856647</v>
       </c>
+      <c r="C60" t="n">
+        <v>0.535795206233185</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5358640621033914</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -920,6 +1280,12 @@
       <c r="B61" t="n">
         <v>0.5362377459475458</v>
       </c>
+      <c r="C61" t="n">
+        <v>0.5362890667995023</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5363563387698368</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -928,6 +1294,12 @@
       <c r="B62" t="n">
         <v>0.5353182900895587</v>
       </c>
+      <c r="C62" t="n">
+        <v>0.5353640394127899</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5354261253636936</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -936,6 +1308,12 @@
       <c r="B63" t="n">
         <v>0.5356757121493104</v>
       </c>
+      <c r="C63" t="n">
+        <v>0.5357272002046485</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.5357942493575946</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -944,6 +1322,12 @@
       <c r="B64" t="n">
         <v>0.5355239526720813</v>
       </c>
+      <c r="C64" t="n">
+        <v>0.535572739017808</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.5356377651324875</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -952,6 +1336,12 @@
       <c r="B65" t="n">
         <v>0.5359746295277161</v>
       </c>
+      <c r="C65" t="n">
+        <v>0.5360288567888504</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.5360979061663813</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -960,6 +1350,12 @@
       <c r="B66" t="n">
         <v>0.5355443608804885</v>
       </c>
+      <c r="C66" t="n">
+        <v>0.535595190881334</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.5356606472803479</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -968,6 +1364,12 @@
       <c r="B67" t="n">
         <v>0.5355496369501495</v>
       </c>
+      <c r="C67" t="n">
+        <v>0.5356012748869207</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.535667307922685</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -976,6 +1378,12 @@
       <c r="B68" t="n">
         <v>-0.9351964673697867</v>
       </c>
+      <c r="C68" t="n">
+        <v>-0.9360291970323087</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.9382113795511112</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -984,6 +1392,12 @@
       <c r="B69" t="n">
         <v>-0.9499635073032934</v>
       </c>
+      <c r="C69" t="n">
+        <v>-0.9511783088872655</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.953653045001737</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -992,6 +1406,12 @@
       <c r="B70" t="n">
         <v>-0.9385308142615527</v>
       </c>
+      <c r="C70" t="n">
+        <v>-0.9390831798716595</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.9411269522568537</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1000,6 +1420,12 @@
       <c r="B71" t="n">
         <v>-0.9452413797331692</v>
       </c>
+      <c r="C71" t="n">
+        <v>-0.9462336969081354</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.9484965245065426</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1008,6 +1434,12 @@
       <c r="B72" t="n">
         <v>-0.962662985399318</v>
       </c>
+      <c r="C72" t="n">
+        <v>-0.9633261623330192</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.9653412324795119</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1016,6 +1448,12 @@
       <c r="B73" t="n">
         <v>-0.921764941160666</v>
       </c>
+      <c r="C73" t="n">
+        <v>-0.9222718511116437</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.92422937209055</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1024,6 +1462,12 @@
       <c r="B74" t="n">
         <v>-0.9132890967513904</v>
       </c>
+      <c r="C74" t="n">
+        <v>-0.9133154506164061</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.9149689903929246</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1032,6 +1476,12 @@
       <c r="B75" t="n">
         <v>-0.9262137765839573</v>
       </c>
+      <c r="C75" t="n">
+        <v>-0.927068412250676</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.929203098972661</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1040,6 +1490,12 @@
       <c r="B76" t="n">
         <v>-0.9346527778393726</v>
       </c>
+      <c r="C76" t="n">
+        <v>-0.9360164311754946</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.9386075728817361</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1048,6 +1504,12 @@
       <c r="B77" t="n">
         <v>-0.9502538592710442</v>
       </c>
+      <c r="C77" t="n">
+        <v>-0.9511658403391047</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.9534068946546039</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1056,6 +1518,12 @@
       <c r="B78" t="n">
         <v>-0.9565663588681688</v>
       </c>
+      <c r="C78" t="n">
+        <v>-0.956000915947212</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.957282591290188</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1064,6 +1532,12 @@
       <c r="B79" t="n">
         <v>-0.9637880443425272</v>
       </c>
+      <c r="C79" t="n">
+        <v>-0.9640638870739366</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.965874864254975</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1072,6 +1546,12 @@
       <c r="B80" t="n">
         <v>-0.9520566272035974</v>
       </c>
+      <c r="C80" t="n">
+        <v>-0.9522132069723177</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.9540207801219041</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1080,6 +1560,12 @@
       <c r="B81" t="n">
         <v>-0.9460967948248366</v>
       </c>
+      <c r="C81" t="n">
+        <v>-0.9467865962783178</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.9489026342124011</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1088,6 +1574,12 @@
       <c r="B82" t="n">
         <v>-0.9647447004530418</v>
       </c>
+      <c r="C82" t="n">
+        <v>-0.9635624987380182</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.9642925506427931</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1096,6 +1588,12 @@
       <c r="B83" t="n">
         <v>-0.9567369756694279</v>
       </c>
+      <c r="C83" t="n">
+        <v>-0.9566538491020428</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.9582554986937677</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1104,6 +1602,12 @@
       <c r="B84" t="n">
         <v>-0.9533428252021309</v>
       </c>
+      <c r="C84" t="n">
+        <v>-0.954044820456564</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.9562057753780954</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1112,6 +1616,12 @@
       <c r="B85" t="n">
         <v>-0.9551594674614133</v>
       </c>
+      <c r="C85" t="n">
+        <v>-0.9553011134842886</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.9571067306756915</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1120,6 +1630,12 @@
       <c r="B86" t="n">
         <v>-0.9719492919108464</v>
       </c>
+      <c r="C86" t="n">
+        <v>-0.971898943124004</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.9734896293008709</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1128,6 +1644,12 @@
       <c r="B87" t="n">
         <v>-0.9499397110565493</v>
       </c>
+      <c r="C87" t="n">
+        <v>-0.9499032796669811</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.9515390529423468</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1136,6 +1658,12 @@
       <c r="B88" t="n">
         <v>-1.017476923975287</v>
       </c>
+      <c r="C88" t="n">
+        <v>-1.036398984347134</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-1.048986870440514</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1144,6 +1672,12 @@
       <c r="B89" t="n">
         <v>-3.11148841263675</v>
       </c>
+      <c r="C89" t="n">
+        <v>-3.182746426491728</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-3.239468468317507</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1152,6 +1686,12 @@
       <c r="B90" t="n">
         <v>-1.078377298101564</v>
       </c>
+      <c r="C90" t="n">
+        <v>-1.06559245137013</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-1.061256224406579</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1160,6 +1700,12 @@
       <c r="B91" t="n">
         <v>-5.644023090432054</v>
       </c>
+      <c r="C91" t="n">
+        <v>-5.475796155716247</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-5.369429669021585</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1168,6 +1714,12 @@
       <c r="B92" t="n">
         <v>-0.7086893625026023</v>
       </c>
+      <c r="C92" t="n">
+        <v>-0.7109405100576559</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.7160438386020425</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1176,6 +1728,12 @@
       <c r="B93" t="n">
         <v>-0.8140547340337668</v>
       </c>
+      <c r="C93" t="n">
+        <v>-0.8457248341903263</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.8845287880135733</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1184,6 +1742,12 @@
       <c r="B94" t="n">
         <v>-1.188265708166763</v>
       </c>
+      <c r="C94" t="n">
+        <v>-1.190585770993191</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-1.194087485267938</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1192,6 +1756,12 @@
       <c r="B95" t="n">
         <v>-0.3719386885895111</v>
       </c>
+      <c r="C95" t="n">
+        <v>-0.5645379901819131</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.6909611904607358</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1199,6 +1769,12 @@
       </c>
       <c r="B96" t="n">
         <v>-1.440011537934746</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.462127619019495</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-1.476619811633787</v>
       </c>
     </row>
   </sheetData>
